--- a/storage/app/private/demo_chuyen_gia.xlsx
+++ b/storage/app/private/demo_chuyen_gia.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="42">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -52,6 +52,103 @@
   </si>
   <si>
     <t>GS</t>
+  </si>
+  <si>
+    <t>kết quả nghiên cứu</t>
+  </si>
+  <si>
+    <t>công trình nghiên cứu</t>
+  </si>
+  <si>
+    <t>aạhew</t>
+  </si>
+  <si>
+    <t>ahfjwhe</t>
+  </si>
+  <si>
+    <t>kq2</t>
+  </si>
+  <si>
+    <t>ct2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>+ahfjwhea
++hjehweu 
++afwiuiw hê hê</t>
+  </si>
+  <si>
+    <t>+ahfjwhea
++hjehweu
++afwiuiw hê hê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ten 4     </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ten 5</t>
+  </si>
+  <si>
+    <t>ten 6</t>
+  </si>
+  <si>
+    <t>ten 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>+yên nào
+iewewiquo
++hjehweu 1
++afwiuiw hê hê</t>
+  </si>
+  <si>
+    <t>Lê Minh Sơn</t>
+  </si>
+  <si>
+    <t>công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>Đại học quốc gia hà nội</t>
+  </si>
+  <si>
+    <t>144 Xuân thủy</t>
+  </si>
+  <si>
+    <t>Dương Lê Minh</t>
+  </si>
+  <si>
+    <t>mạng máy tính</t>
+  </si>
+  <si>
+    <t>mạng và truyền thông</t>
+  </si>
+  <si>
+    <t>Nguyen Quang Vinh</t>
+  </si>
+  <si>
+    <t>khoa học môi trường</t>
+  </si>
+  <si>
+    <t>it3</t>
+  </si>
+  <si>
+    <t>Phạm Văn Đồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -87,16 +184,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -111,11 +218,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I20" totalsRowShown="0">
-  <autoFilter ref="A1:I20"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K20" totalsRowShown="0">
+  <autoFilter ref="A1:K20"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="Họ và tên"/>
-    <tableColumn id="2" name="năm sinh" dataDxfId="0"/>
+    <tableColumn id="2" name="năm sinh" dataDxfId="2"/>
     <tableColumn id="3" name="học vị"/>
     <tableColumn id="4" name="chuyên ngành"/>
     <tableColumn id="5" name="tỉnh thành"/>
@@ -123,6 +230,8 @@
     <tableColumn id="7" name="địa chỉ cơ quan"/>
     <tableColumn id="8" name="hướng nghiên cứu"/>
     <tableColumn id="9" name="sl bài báo công trình"/>
+    <tableColumn id="10" name="kết quả nghiên cứu" dataDxfId="1"/>
+    <tableColumn id="11" name="công trình nghiên cứu" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -415,20 +524,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="A1:XFD1048576"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.625" style="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="11" width="16.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,97 +566,121 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
-        <v>1996</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
-        <v>1996</v>
+        <v>1989</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>1996</v>
@@ -572,10 +706,16 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>1996</v>
@@ -601,10 +741,16 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <v>1996</v>
@@ -630,10 +776,16 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1">
         <v>1996</v>
@@ -659,10 +811,16 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
+      <c r="J8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>1996</v>
@@ -688,9 +846,15 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="J9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -717,10 +881,16 @@
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="J10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>1996</v>
@@ -746,10 +916,16 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1996</v>
@@ -775,10 +951,16 @@
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1996</v>
@@ -804,10 +986,16 @@
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
+      <c r="J13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>1996</v>
@@ -833,16 +1021,22 @@
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>1996</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -862,10 +1056,16 @@
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>1996</v>
@@ -891,13 +1091,19 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
+      <c r="J16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>1996</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -920,10 +1126,16 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
+      <c r="J17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>1996</v>
@@ -949,10 +1161,16 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
+      <c r="J18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>1996</v>
@@ -978,10 +1196,16 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
+      <c r="J19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>1996</v>
@@ -990,7 +1214,7 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1007,11 +1231,21 @@
       <c r="I20">
         <v>0</v>
       </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/storage/app/private/demo_chuyen_gia.xlsx
+++ b/storage/app/private/demo_chuyen_gia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -45,9 +45,6 @@
     <t>sl bài báo công trình</t>
   </si>
   <si>
-    <t>this is test</t>
-  </si>
-  <si>
     <t>Hà Nội</t>
   </si>
   <si>
@@ -60,46 +57,9 @@
     <t>công trình nghiên cứu</t>
   </si>
   <si>
-    <t>aạhew</t>
-  </si>
-  <si>
-    <t>ahfjwhe</t>
-  </si>
-  <si>
-    <t>kq2</t>
-  </si>
-  <si>
-    <t>ct2</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>+ahfjwhea
-+hjehweu 
-+afwiuiw hê hê</t>
-  </si>
-  <si>
-    <t>+ahfjwhea
-+hjehweu
-+afwiuiw hê hê</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ten 4     </t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>ten 5</t>
-  </si>
-  <si>
-    <t>ten 6</t>
-  </si>
-  <si>
-    <t>ten 7</t>
-  </si>
-  <si>
     <t>Lê Minh Sơn</t>
   </si>
   <si>
@@ -127,16 +87,29 @@
     <t>khoa học môi trường</t>
   </si>
   <si>
-    <t>it3</t>
-  </si>
-  <si>
     <t>Phạm Văn Đồng</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
+    <t>Viện công nghệ</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t>vật liệu mới</t>
+  </si>
+  <si>
+    <t>hệ thống nhận dạng vân tay</t>
+  </si>
+  <si>
+    <t>+hệ thống nhận dạng vân tay
++thu thập nhu cầu sử dụng mạng
++network of mind</t>
+  </si>
+  <si>
+    <t>+máy xử lý rác tự động
++túi giấy tự phân hủy
++thuốc trừ sâu sinh học</t>
   </si>
 </sst>
 </file>
@@ -200,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,6 +195,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +540,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +548,8 @@
     <col min="2" max="2" width="16.5703125" style="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="11" width="16.5703125" style="2"/>
+    <col min="10" max="10" width="28.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -596,256 +581,168 @@
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5">
         <v>1990</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1988</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1989</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="5">
-        <v>199</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1989</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1996</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="K4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1996</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1996</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1996</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9"/>
